--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/VERMONT_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/VERMONT_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C6">
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C15">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C22">
@@ -861,7 +861,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C35">
@@ -960,76 +960,6 @@
       </c>
       <c r="D42">
         <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/VERMONT_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/VERMONT_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Rosas</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
